--- a/analytics/sandbox/notebooks/relative_wealth_index/result/rwi_average.xlsx
+++ b/analytics/sandbox/notebooks/relative_wealth_index/result/rwi_average.xlsx
@@ -468,10 +468,10 @@
         <v>-0.18</v>
       </c>
       <c r="D2" t="n">
-        <v>1798318</v>
+        <v>1760930</v>
       </c>
       <c r="E2" t="n">
-        <v>-323697.24</v>
+        <v>-316967.4</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         <v>-0.27</v>
       </c>
       <c r="D3" t="n">
-        <v>1148776</v>
+        <v>1125458</v>
       </c>
       <c r="E3" t="n">
-        <v>-310169.52</v>
+        <v>-303873.66</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>-0.33</v>
       </c>
       <c r="D4" t="n">
-        <v>801586</v>
+        <v>785420</v>
       </c>
       <c r="E4" t="n">
-        <v>-264523.38</v>
+        <v>-259188.6</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,10 @@
         <v>-0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>978588</v>
+        <v>958237</v>
       </c>
       <c r="E5" t="n">
-        <v>-244647</v>
+        <v>-239559.25</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +544,10 @@
         <v>-0.16</v>
       </c>
       <c r="D6" t="n">
-        <v>1306643</v>
+        <v>1280068</v>
       </c>
       <c r="E6" t="n">
-        <v>-209062.88</v>
+        <v>-204810.88</v>
       </c>
     </row>
     <row r="7">
@@ -563,10 +563,10 @@
         <v>-0.31</v>
       </c>
       <c r="D7" t="n">
-        <v>672559</v>
+        <v>658808</v>
       </c>
       <c r="E7" t="n">
-        <v>-208493.29</v>
+        <v>-204230.48</v>
       </c>
     </row>
     <row r="8">
@@ -582,10 +582,10 @@
         <v>-0.35</v>
       </c>
       <c r="D8" t="n">
-        <v>565293</v>
+        <v>554015</v>
       </c>
       <c r="E8" t="n">
-        <v>-197852.55</v>
+        <v>-193905.25</v>
       </c>
     </row>
     <row r="9">
@@ -601,10 +601,10 @@
         <v>-0.23</v>
       </c>
       <c r="D9" t="n">
-        <v>799132</v>
+        <v>782482</v>
       </c>
       <c r="E9" t="n">
-        <v>-183800.36</v>
+        <v>-179970.86</v>
       </c>
     </row>
     <row r="10">
@@ -620,10 +620,10 @@
         <v>-0.12</v>
       </c>
       <c r="D10" t="n">
-        <v>1521958</v>
+        <v>1492035</v>
       </c>
       <c r="E10" t="n">
-        <v>-182634.96</v>
+        <v>-179044.2</v>
       </c>
     </row>
     <row r="11">
@@ -639,10 +639,10 @@
         <v>-0.17</v>
       </c>
       <c r="D11" t="n">
-        <v>1041126</v>
+        <v>1019827</v>
       </c>
       <c r="E11" t="n">
-        <v>-176991.42</v>
+        <v>-173370.59</v>
       </c>
     </row>
     <row r="12">
@@ -658,10 +658,10 @@
         <v>-0.23</v>
       </c>
       <c r="D12" t="n">
-        <v>748033</v>
+        <v>732489</v>
       </c>
       <c r="E12" t="n">
-        <v>-172047.59</v>
+        <v>-168472.47</v>
       </c>
     </row>
     <row r="13">
@@ -677,10 +677,10 @@
         <v>-0.22</v>
       </c>
       <c r="D13" t="n">
-        <v>745776</v>
+        <v>731160</v>
       </c>
       <c r="E13" t="n">
-        <v>-164070.72</v>
+        <v>-160855.2</v>
       </c>
     </row>
     <row r="14">
@@ -696,10 +696,10 @@
         <v>-0.24</v>
       </c>
       <c r="D14" t="n">
-        <v>679143</v>
+        <v>664994</v>
       </c>
       <c r="E14" t="n">
-        <v>-162994.32</v>
+        <v>-159598.56</v>
       </c>
     </row>
     <row r="15">
@@ -715,10 +715,10 @@
         <v>-0.15</v>
       </c>
       <c r="D15" t="n">
-        <v>1075245</v>
+        <v>1052843</v>
       </c>
       <c r="E15" t="n">
-        <v>-161286.75</v>
+        <v>-157926.45</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +734,10 @@
         <v>-0.14</v>
       </c>
       <c r="D16" t="n">
-        <v>1143672</v>
+        <v>1119900</v>
       </c>
       <c r="E16" t="n">
-        <v>-160114.08</v>
+        <v>-156786</v>
       </c>
     </row>
     <row r="17">
@@ -753,10 +753,10 @@
         <v>-0.22</v>
       </c>
       <c r="D17" t="n">
-        <v>676106</v>
+        <v>663088</v>
       </c>
       <c r="E17" t="n">
-        <v>-148743.32</v>
+        <v>-145879.36</v>
       </c>
     </row>
     <row r="18">
@@ -772,10 +772,10 @@
         <v>-0.13</v>
       </c>
       <c r="D18" t="n">
-        <v>1102750</v>
+        <v>1079774</v>
       </c>
       <c r="E18" t="n">
-        <v>-143357.5</v>
+        <v>-140370.62</v>
       </c>
     </row>
     <row r="19">
@@ -791,10 +791,10 @@
         <v>-0.08</v>
       </c>
       <c r="D19" t="n">
-        <v>1731786</v>
+        <v>1698440</v>
       </c>
       <c r="E19" t="n">
-        <v>-138542.88</v>
+        <v>-135875.2</v>
       </c>
     </row>
     <row r="20">
@@ -810,10 +810,10 @@
         <v>-0.16</v>
       </c>
       <c r="D20" t="n">
-        <v>861682</v>
+        <v>843729</v>
       </c>
       <c r="E20" t="n">
-        <v>-137869.12</v>
+        <v>-134996.64</v>
       </c>
     </row>
     <row r="21">
@@ -829,10 +829,10 @@
         <v>-0.28</v>
       </c>
       <c r="D21" t="n">
-        <v>422769</v>
+        <v>414136</v>
       </c>
       <c r="E21" t="n">
-        <v>-118375.32</v>
+        <v>-115958.08</v>
       </c>
     </row>
     <row r="22">
@@ -848,10 +848,10 @@
         <v>-0.19</v>
       </c>
       <c r="D22" t="n">
-        <v>577738</v>
+        <v>565701</v>
       </c>
       <c r="E22" t="n">
-        <v>-109770.22</v>
+        <v>-107483.19</v>
       </c>
     </row>
     <row r="23">
@@ -867,10 +867,10 @@
         <v>-0.33</v>
       </c>
       <c r="D23" t="n">
-        <v>302705</v>
+        <v>296471</v>
       </c>
       <c r="E23" t="n">
-        <v>-99892.65000000001</v>
+        <v>-97835.43000000001</v>
       </c>
     </row>
     <row r="24">
@@ -886,10 +886,10 @@
         <v>-0.1</v>
       </c>
       <c r="D24" t="n">
-        <v>797138</v>
+        <v>780530</v>
       </c>
       <c r="E24" t="n">
-        <v>-79713.8</v>
+        <v>-78053</v>
       </c>
     </row>
     <row r="25">
@@ -905,10 +905,10 @@
         <v>-0.13</v>
       </c>
       <c r="D25" t="n">
-        <v>601661</v>
+        <v>589126</v>
       </c>
       <c r="E25" t="n">
-        <v>-78215.93000000001</v>
+        <v>-76586.38</v>
       </c>
     </row>
     <row r="26">
@@ -924,10 +924,10 @@
         <v>-0.05</v>
       </c>
       <c r="D26" t="n">
-        <v>829246</v>
+        <v>811969</v>
       </c>
       <c r="E26" t="n">
-        <v>-41462.3</v>
+        <v>-40598.45</v>
       </c>
     </row>
     <row r="27">
@@ -943,10 +943,10 @@
         <v>-0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>914009</v>
+        <v>894966</v>
       </c>
       <c r="E27" t="n">
-        <v>-18280.18</v>
+        <v>-17899.32</v>
       </c>
     </row>
     <row r="28">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1711312</v>
+        <v>1676261</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1112060</v>
+        <v>1088890</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>1063029</v>
+        <v>1040881</v>
       </c>
       <c r="E30" t="n">
-        <v>10630.29</v>
+        <v>10408.81</v>
       </c>
     </row>
     <row r="31">
@@ -1019,10 +1019,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>1141340</v>
+        <v>1117561</v>
       </c>
       <c r="E31" t="n">
-        <v>79893.8</v>
+        <v>78229.27</v>
       </c>
     </row>
     <row r="32">
@@ -1038,10 +1038,10 @@
         <v>0.19</v>
       </c>
       <c r="D32" t="n">
-        <v>3905988</v>
+        <v>3824609</v>
       </c>
       <c r="E32" t="n">
-        <v>742137.72</v>
+        <v>726675.71</v>
       </c>
     </row>
     <row r="33">
@@ -1057,10 +1057,10 @@
         <v>0.86</v>
       </c>
       <c r="D33" t="n">
-        <v>3968244</v>
+        <v>3885569</v>
       </c>
       <c r="E33" t="n">
-        <v>3412689.84</v>
+        <v>3341589.34</v>
       </c>
     </row>
     <row r="34">
@@ -1076,10 +1076,10 @@
         <v>1.45</v>
       </c>
       <c r="D34" t="n">
-        <v>3055220</v>
+        <v>2991566</v>
       </c>
       <c r="E34" t="n">
-        <v>4430069</v>
+        <v>4337770.7</v>
       </c>
     </row>
   </sheetData>
